--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEC4E2-7E72-4109-9376-21DB8C89BC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB4DEB-1249-4F0C-87AB-E5EB942A4311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="87">
   <si>
     <t>오늘의 금융상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,34 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입출금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만기연장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연금전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISA 튜토리얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WRAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,13 +334,34 @@
     <t>C:\Users\bichn\Downloads\hero\isa\isa_tax_saving.html</t>
   </si>
   <si>
-    <t>C:\Users\bichn\Downloads\hero\isa\isa_account_info.html</t>
-  </si>
-  <si>
     <t>C:\Users\bichn\Downloads\hero\rp\rp_balance.html</t>
   </si>
   <si>
     <t>C:\Users\bichn\Downloads\hero\rp\rp_list.html</t>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa_discovery.html</t>
+  </si>
+  <si>
+    <t>발견_상단menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발견_scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발견_swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa-discovery-swipe.html</t>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa-discovery-scroll.html</t>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\files\isa-task.html</t>
   </si>
 </sst>
 </file>
@@ -746,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F30C560-37CE-4D0A-B433-C7C590A883BF}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -762,16 +755,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
@@ -779,16 +772,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -796,16 +789,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -822,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
@@ -836,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
@@ -850,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
@@ -864,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
@@ -878,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
@@ -892,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
@@ -906,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -920,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
@@ -934,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
@@ -942,13 +935,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -959,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -982,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
@@ -996,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
@@ -1010,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
@@ -1024,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
@@ -1038,7 +1031,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
@@ -1052,7 +1045,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
@@ -1066,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
@@ -1080,7 +1073,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
@@ -1094,7 +1087,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
@@ -1108,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
@@ -1122,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
@@ -1136,7 +1129,7 @@
         <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
@@ -1150,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
@@ -1164,7 +1157,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
@@ -1178,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
@@ -1192,7 +1185,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
@@ -1206,7 +1199,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
@@ -1220,7 +1213,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.6">
@@ -1234,7 +1227,7 @@
         <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
@@ -1248,7 +1241,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.6">
@@ -1262,7 +1255,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.6">
@@ -1273,7 +1266,10 @@
         <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>25</v>
@@ -1284,13 +1280,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>25</v>
@@ -1301,10 +1297,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>84</v>
@@ -1313,18 +1309,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.6">
@@ -1332,13 +1331,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
@@ -1346,13 +1348,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
@@ -1360,13 +1362,13 @@
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
@@ -1377,10 +1379,13 @@
         <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
@@ -1391,10 +1396,10 @@
         <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
@@ -1405,10 +1410,10 @@
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
@@ -1419,13 +1424,10 @@
         <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
@@ -1436,136 +1438,164 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB4DEB-1249-4F0C-87AB-E5EB942A4311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AC4B6-FE8B-4C92-A917-1F975C04E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>C:\Users\bichn\Downloads\hero\asset\asset_kiwoom.html</t>
   </si>
   <si>
-    <t>C:\Users\bichn\Downloads\hero\isa\isa_balance.html</t>
-  </si>
-  <si>
     <t>C:\Users\bichn\Downloads\hero\isa\isa_tax_saving.html</t>
   </si>
   <si>
@@ -362,6 +359,10 @@
   </si>
   <si>
     <t>C:\Users\bichn\Downloads\files\isa-task.html</t>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa-balance-v4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -741,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F30C560-37CE-4D0A-B433-C7C590A883BF}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -941,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -958,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1266,10 +1267,10 @@
         <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>25</v>
@@ -1283,10 +1284,10 @@
         <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>25</v>
@@ -1300,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>25</v>
@@ -1320,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>25</v>
@@ -1337,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>25</v>
@@ -1382,7 +1383,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>25</v>

--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AC4B6-FE8B-4C92-A917-1F975C04E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB846A9-4DDC-4A6F-A9DB-42745374E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>

--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB846A9-4DDC-4A6F-A9DB-42745374E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCC231-583E-4E48-82FC-F5BE9024C0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
@@ -358,10 +358,11 @@
     <t>C:\Users\bichn\Downloads\hero\isa\isa-discovery-scroll.html</t>
   </si>
   <si>
-    <t>C:\Users\bichn\Downloads\files\isa-task.html</t>
-  </si>
-  <si>
     <t>C:\Users\bichn\Downloads\hero\isa\isa-balance-v4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa-task.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +744,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1321,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>25</v>
@@ -1383,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>25</v>

--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCC231-583E-4E48-82FC-F5BE9024C0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FC3D7E-1C1B-484A-B645-DF32B114E653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1457,7 +1457,7 @@
         <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">

--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FC3D7E-1C1B-484A-B645-DF32B114E653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7455E406-3B28-4D73-995F-8841842C1FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>오늘의 금융상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자산관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,9 +329,6 @@
     <t>C:\Users\bichn\Downloads\hero\rp\rp_list.html</t>
   </si>
   <si>
-    <t>C:\Users\bichn\Downloads\hero\isa\isa_discovery.html</t>
-  </si>
-  <si>
     <t>발견_상단menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,12 +347,14 @@
     <t>C:\Users\bichn\Downloads\hero\isa\isa-discovery-scroll.html</t>
   </si>
   <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa-task.html</t>
+  </si>
+  <si>
+    <t>C:\Users\bichn\Downloads\hero\isa\isa-discovery.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C:\Users\bichn\Downloads\hero\isa\isa-balance-v4.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\bichn\Downloads\hero\isa\isa-task.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F30C560-37CE-4D0A-B433-C7C590A883BF}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -757,53 +748,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>IF(D1&lt;&gt;"","O","X")</f>
+        <v>O</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E58" si="0">IF(D2&lt;&gt;"","O","X")</f>
+        <v>O</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
@@ -816,8 +810,9 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>68</v>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
@@ -830,8 +825,9 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
@@ -844,8 +840,9 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>68</v>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
@@ -858,8 +855,9 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>68</v>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
@@ -872,8 +870,9 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>68</v>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
@@ -886,8 +885,9 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
@@ -900,8 +900,9 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -914,8 +915,9 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
@@ -928,8 +930,9 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
@@ -937,16 +940,17 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
@@ -954,16 +958,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
@@ -976,8 +981,9 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
@@ -990,8 +996,9 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
@@ -1004,8 +1011,9 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
@@ -1018,8 +1026,9 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
@@ -1032,8 +1041,9 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
@@ -1046,8 +1056,9 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>68</v>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
@@ -1060,8 +1071,9 @@
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>68</v>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
@@ -1074,8 +1086,9 @@
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>68</v>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
@@ -1086,518 +1099,554 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>68</v>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>25</v>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>68</v>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>68</v>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>68</v>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>68</v>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
   </sheetData>

--- a/menutree.xlsx
+++ b/menutree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bichn\Downloads\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7455E406-3B28-4D73-995F-8841842C1FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2217CBB8-D21B-407C-A748-290114CCAEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F6473D-288C-4DD8-8EE0-FAA7A937ABE2}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
